--- a/Industry/201612-201908/HKD/MILLION/Analysis_135_M28.1 - Travel Goods & Handbags (SITC 831 in 5 digits)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_135_M28.1 - Travel Goods & Handbags (SITC 831 in 5 digits)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2688" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -27857,6 +27858,521 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32717.397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33534.197</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21553.752</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32423.375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.313</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21188.048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.697</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12617.466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13535.297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9463.736000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14417.736</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10249.107</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.298999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38.565</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40.363</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43.908</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44.467</v>
+      </c>
+      <c r="N3" t="n">
+        <v>48.372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7077.235</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6958.556</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.677</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4472.353</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6688.745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.877</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3951.462</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-11.647</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.631</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.751</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20.629</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6570.866</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6929.139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.452</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4077.901</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6094.958</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-12.039</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3695.973</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-9.366</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.084</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.663</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="M5" t="n">
+        <v>18.798</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4908.994</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4496.093</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-8.411</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2575.867</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3820.258</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-15.032</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2425.597</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-5.834</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.004</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.407</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.951</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.782</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11.448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="n">
+        <v>844.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1030.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.045</v>
+      </c>
+      <c r="E7" t="n">
+        <v>580.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>833.6369999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-19.077</v>
+      </c>
+      <c r="H7" t="n">
+        <v>502.351</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-13.497</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" t="n">
+        <v>367.397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>251.743</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-31.479</v>
+      </c>
+      <c r="E8" t="n">
+        <v>172.848</v>
+      </c>
+      <c r="F8" t="n">
+        <v>263.525</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H8" t="n">
+        <v>179.719</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="n">
+        <v>287.848</v>
+      </c>
+      <c r="C9" t="n">
+        <v>248.466</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-13.682</v>
+      </c>
+      <c r="E9" t="n">
+        <v>128.955</v>
+      </c>
+      <c r="F9" t="n">
+        <v>191.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-22.875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>118.908</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-7.791</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.994</v>
+      </c>
+      <c r="C10" t="n">
+        <v>62.686</v>
+      </c>
+      <c r="D10" t="n">
+        <v>268.869</v>
+      </c>
+      <c r="E10" t="n">
+        <v>58.332</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82.301</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.291</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53.144</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-8.893000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26.518</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.058</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-16.821</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.585</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.659</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.789</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-48.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>214</v>
       </c>
       <c r="K1" s="2" t="s">
